--- a/confrences.xlsx
+++ b/confrences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielleblumstein/Documents/DaniBlumstein.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFD4091-0545-6D47-99B5-E5A142EB63B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE2192-867A-7840-AACF-110BE03DF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="460" windowWidth="27280" windowHeight="16540" xr2:uid="{AF853D93-F423-924D-B6B5-EE635607AA8E}"/>
+    <workbookView xWindow="1520" yWindow="7400" windowWidth="27280" windowHeight="16540" xr2:uid="{AF853D93-F423-924D-B6B5-EE635607AA8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>site</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Coastwide Salmonid Genetics Meeting</t>
+  </si>
+  <si>
+    <t>The Society for Integrative &amp; Comparitive Biology</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967996D-E96D-BF4A-9D6B-2EA7081F6CC0}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,6 +642,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>33.448376000000003</v>
+      </c>
+      <c r="C12">
+        <v>-112.07403600000001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/confrences.xlsx
+++ b/confrences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielleblumstein/Documents/DaniBlumstein.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE2192-867A-7840-AACF-110BE03DF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFD4091-0545-6D47-99B5-E5A142EB63B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="7400" windowWidth="27280" windowHeight="16540" xr2:uid="{AF853D93-F423-924D-B6B5-EE635607AA8E}"/>
+    <workbookView xWindow="6560" yWindow="460" windowWidth="27280" windowHeight="16540" xr2:uid="{AF853D93-F423-924D-B6B5-EE635607AA8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>site</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Coastwide Salmonid Genetics Meeting</t>
-  </si>
-  <si>
-    <t>The Society for Integrative &amp; Comparitive Biology</t>
   </si>
 </sst>
 </file>
@@ -447,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967996D-E96D-BF4A-9D6B-2EA7081F6CC0}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,23 +639,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>33.448376000000003</v>
-      </c>
-      <c r="C12">
-        <v>-112.07403600000001</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
